--- a/res_table.xlsx
+++ b/res_table.xlsx
@@ -481,7 +481,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>AI &amp; Machine Learning</t>
+          <t>Ai_Ml</t>
         </is>
       </c>
       <c r="C2" t="n">
@@ -494,16 +494,16 @@
         <v>3.538097381591797</v>
       </c>
       <c r="F2" t="n">
-        <v>43.76479825004935</v>
+        <v>0.4376479825004935</v>
       </c>
       <c r="G2" t="n">
-        <v>76.90486907958984</v>
+        <v>0.7690486907958984</v>
       </c>
       <c r="H2" t="n">
-        <v>16.37372016906738</v>
+        <v>0.1637372076511383</v>
       </c>
       <c r="I2" t="n">
-        <v>32.58975219726562</v>
+        <v>0.3258975148200989</v>
       </c>
     </row>
     <row r="3">
@@ -512,7 +512,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Collaborative systems</t>
+          <t>Col_Sys</t>
         </is>
       </c>
       <c r="C3" t="n">
@@ -525,16 +525,16 @@
         <v>2.913406528532505</v>
       </c>
       <c r="F3" t="n">
-        <v>53.2063914462924</v>
+        <v>0.532063914462924</v>
       </c>
       <c r="G3" t="n">
-        <v>45.67032642662525</v>
+        <v>0.4567032642662525</v>
       </c>
       <c r="H3" t="n">
-        <v>36.06675720214844</v>
+        <v>0.3606675863265991</v>
       </c>
       <c r="I3" t="n">
-        <v>16.24287033081055</v>
+        <v>0.1624287068843842</v>
       </c>
     </row>
     <row r="4">
@@ -543,7 +543,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Communications &amp; Networking</t>
+          <t>Com_Net</t>
         </is>
       </c>
       <c r="C4" t="n">
@@ -556,16 +556,16 @@
         <v>5.002135161310434</v>
       </c>
       <c r="F4" t="n">
-        <v>13.87422322295606</v>
+        <v>0.1387422322295606</v>
       </c>
       <c r="G4" t="n">
-        <v>25.05337903276086</v>
+        <v>0.2505337903276086</v>
       </c>
       <c r="H4" t="n">
-        <v>0.6818106174468994</v>
+        <v>0.006818106397986412</v>
       </c>
       <c r="I4" t="n">
-        <v>1.214681386947632</v>
+        <v>0.01214681379497051</v>
       </c>
     </row>
     <row r="5">
@@ -574,7 +574,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Control systems &amp; Algorithms</t>
+          <t>Cont_Alg</t>
         </is>
       </c>
       <c r="C5" t="n">
@@ -587,16 +587,16 @@
         <v>5.531789172440767</v>
       </c>
       <c r="F5" t="n">
-        <v>16.29669845104218</v>
+        <v>0.1629669845104217</v>
       </c>
       <c r="G5" t="n">
-        <v>10.63578344881535</v>
+        <v>0.1063578344881535</v>
       </c>
       <c r="H5" t="n">
-        <v>0.6897940635681152</v>
+        <v>0.006897940766066313</v>
       </c>
       <c r="I5" t="n">
-        <v>0.9199782013893127</v>
+        <v>0.009199782274663448</v>
       </c>
     </row>
     <row r="6">
@@ -605,7 +605,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Cybersecurity</t>
+          <t>Cyb_Sec</t>
         </is>
       </c>
       <c r="C6" t="n">
@@ -618,16 +618,16 @@
         <v>3.539059318602085</v>
       </c>
       <c r="F6" t="n">
-        <v>14.68440300474564</v>
+        <v>0.1468440300474564</v>
       </c>
       <c r="G6" t="n">
-        <v>17.96864395340284</v>
+        <v>0.1796864395340284</v>
       </c>
       <c r="H6" t="n">
-        <v>0.8187552690505981</v>
+        <v>0.008187552914023399</v>
       </c>
       <c r="I6" t="n">
-        <v>2.022374868392944</v>
+        <v>0.02022374793887138</v>
       </c>
     </row>
     <row r="7">
@@ -636,7 +636,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Edge Computing</t>
+          <t>Edg_Com</t>
         </is>
       </c>
       <c r="C7" t="n">
@@ -649,16 +649,16 @@
         <v>2.227042407728732</v>
       </c>
       <c r="F7" t="n">
-        <v>33.37973905727267</v>
+        <v>0.3337973905727267</v>
       </c>
       <c r="G7" t="n">
-        <v>11.35212038643658</v>
+        <v>0.1135212038643658</v>
       </c>
       <c r="H7" t="n">
-        <v>0.893005907535553</v>
+        <v>0.008930059149861336</v>
       </c>
       <c r="I7" t="n">
-        <v>1.371029376983643</v>
+        <v>0.01371029391884804</v>
       </c>
     </row>
     <row r="8">
@@ -667,7 +667,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Energy Management</t>
+          <t>Ene_Mgm</t>
         </is>
       </c>
       <c r="C8" t="n">
@@ -680,16 +680,16 @@
         <v>4.364407908171415</v>
       </c>
       <c r="F8" t="n">
-        <v>12.52390460576862</v>
+        <v>0.1252390460576862</v>
       </c>
       <c r="G8" t="n">
-        <v>9.110197704285383</v>
+        <v>0.09110197704285383</v>
       </c>
       <c r="H8" t="n">
-        <v>0.6495729684829712</v>
+        <v>0.006495729554444551</v>
       </c>
       <c r="I8" t="n">
-        <v>0.8383982181549072</v>
+        <v>0.008383981883525848</v>
       </c>
     </row>
     <row r="9">
@@ -698,7 +698,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Ethics &amp; Regulations</t>
+          <t>Eth_Reg</t>
         </is>
       </c>
       <c r="C9" t="n">
@@ -711,16 +711,16 @@
         <v>2.883997913450003</v>
       </c>
       <c r="F9" t="n">
-        <v>25.56498870253563</v>
+        <v>0.2556498870253563</v>
       </c>
       <c r="G9" t="n">
-        <v>44.19989567250013</v>
+        <v>0.4419989567250013</v>
       </c>
       <c r="H9" t="n">
-        <v>0.6429604291915894</v>
+        <v>0.006429604254662991</v>
       </c>
       <c r="I9" t="n">
-        <v>11.852294921875</v>
+        <v>0.1185229495167732</v>
       </c>
     </row>
     <row r="10">
@@ -729,7 +729,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Human Machine Interaction</t>
+          <t>Hum_Man</t>
         </is>
       </c>
       <c r="C10" t="n">
@@ -742,16 +742,16 @@
         <v>3.997776806354523</v>
       </c>
       <c r="F10" t="n">
-        <v>13.78035026912888</v>
+        <v>0.1378035026912888</v>
       </c>
       <c r="G10" t="n">
-        <v>33.25922687848409</v>
+        <v>0.3325922687848409</v>
       </c>
       <c r="H10" t="n">
-        <v>0.947063148021698</v>
+        <v>0.009470631368458271</v>
       </c>
       <c r="I10" t="n">
-        <v>1.025755405426025</v>
+        <v>0.01025755424052477</v>
       </c>
     </row>
     <row r="11">
@@ -760,7 +760,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Localization &amp; Mapping</t>
+          <t>Loc_Map</t>
         </is>
       </c>
       <c r="C11" t="n">
@@ -773,16 +773,16 @@
         <v>3.499153878539801</v>
       </c>
       <c r="F11" t="n">
-        <v>23.71473132322232</v>
+        <v>0.2371473132322232</v>
       </c>
       <c r="G11" t="n">
-        <v>16.63846261799335</v>
+        <v>0.1663846261799335</v>
       </c>
       <c r="H11" t="n">
-        <v>1.10784387588501</v>
+        <v>0.01107843872159719</v>
       </c>
       <c r="I11" t="n">
-        <v>1.810025215148926</v>
+        <v>0.01810025237500668</v>
       </c>
     </row>
     <row r="12">
@@ -791,7 +791,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Sensor Fusion</t>
+          <t>Sen_Fus</t>
         </is>
       </c>
       <c r="C12" t="n">
@@ -804,16 +804,16 @@
         <v>3.195607740432024</v>
       </c>
       <c r="F12" t="n">
-        <v>24.16538608570893</v>
+        <v>0.2416538608570894</v>
       </c>
       <c r="G12" t="n">
-        <v>6.5202580144008</v>
+        <v>0.065202580144008</v>
       </c>
       <c r="H12" t="n">
-        <v>4.844946384429932</v>
+        <v>0.04844946414232254</v>
       </c>
       <c r="I12" t="n">
-        <v>1.938456535339355</v>
+        <v>0.01938456483185291</v>
       </c>
     </row>
     <row r="13">
@@ -822,7 +822,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Sensor Technologies</t>
+          <t>Sen_Tec</t>
         </is>
       </c>
       <c r="C13" t="n">
@@ -835,16 +835,16 @@
         <v>4.632588542997837</v>
       </c>
       <c r="F13" t="n">
-        <v>11.91721365321428</v>
+        <v>0.1191721365321428</v>
       </c>
       <c r="G13" t="n">
-        <v>15.81471357494593</v>
+        <v>0.1581471357494593</v>
       </c>
       <c r="H13" t="n">
-        <v>0.8696182370185852</v>
+        <v>0.008696182630956173</v>
       </c>
       <c r="I13" t="n">
-        <v>0.9424830079078674</v>
+        <v>0.009424829855561256</v>
       </c>
     </row>
     <row r="14">
@@ -853,7 +853,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Simulation &amp; Modeling</t>
+          <t>Sim_Mod</t>
         </is>
       </c>
       <c r="C14" t="n">
@@ -866,16 +866,16 @@
         <v>2.789534740149975</v>
       </c>
       <c r="F14" t="n">
-        <v>81.0511264950037</v>
+        <v>0.810511264950037</v>
       </c>
       <c r="G14" t="n">
-        <v>39.47673700749874</v>
+        <v>0.3947673700749874</v>
       </c>
       <c r="H14" t="n">
-        <v>25.78360366821289</v>
+        <v>0.2578360438346863</v>
       </c>
       <c r="I14" t="n">
-        <v>26.30364608764648</v>
+        <v>0.2630364596843719</v>
       </c>
     </row>
     <row r="15">
@@ -884,7 +884,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Technologies enabling mobility</t>
+          <t>Tec_Mob</t>
         </is>
       </c>
       <c r="C15" t="n">
@@ -897,16 +897,16 @@
         <v>3.538676145486534</v>
       </c>
       <c r="F15" t="n">
-        <v>12.9732072353363</v>
+        <v>0.129732072353363</v>
       </c>
       <c r="G15" t="n">
-        <v>17.95587151621779</v>
+        <v>0.1795587151621779</v>
       </c>
       <c r="H15" t="n">
-        <v>9.630544662475586</v>
+        <v>0.09630544483661652</v>
       </c>
       <c r="I15" t="n">
-        <v>0.928252637386322</v>
+        <v>0.009282526560127735</v>
       </c>
     </row>
   </sheetData>

--- a/res_table.xlsx
+++ b/res_table.xlsx
@@ -488,16 +488,16 @@
         <v>2</v>
       </c>
       <c r="D2" t="n">
-        <v>2.875295965000987</v>
+        <v>2.471608527004719</v>
       </c>
       <c r="E2" t="n">
-        <v>3.538097381591797</v>
+        <v>3.410691294819117</v>
       </c>
       <c r="F2" t="n">
-        <v>0.4376479825004935</v>
+        <v>0.2358042635023594</v>
       </c>
       <c r="G2" t="n">
-        <v>0.7690486907958984</v>
+        <v>0.7053456474095583</v>
       </c>
       <c r="H2" t="n">
         <v>0.1637372076511383</v>
@@ -519,16 +519,16 @@
         <v>2</v>
       </c>
       <c r="D3" t="n">
-        <v>3.064127828925848</v>
+        <v>2.338538888841867</v>
       </c>
       <c r="E3" t="n">
-        <v>2.913406528532505</v>
+        <v>2.43381213163957</v>
       </c>
       <c r="F3" t="n">
-        <v>0.532063914462924</v>
+        <v>0.1692694444209337</v>
       </c>
       <c r="G3" t="n">
-        <v>0.4567032642662525</v>
+        <v>0.216906065819785</v>
       </c>
       <c r="H3" t="n">
         <v>0.3606675863265991</v>
@@ -550,16 +550,16 @@
         <v>4</v>
       </c>
       <c r="D4" t="n">
-        <v>4.554968928918242</v>
+        <v>4.675471302121878</v>
       </c>
       <c r="E4" t="n">
-        <v>5.002135161310434</v>
+        <v>4.276767794974148</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1387422322295606</v>
+        <v>0.1688678255304694</v>
       </c>
       <c r="G4" t="n">
-        <v>0.2505337903276086</v>
+        <v>0.06919194874353707</v>
       </c>
       <c r="H4" t="n">
         <v>0.006818106397986412</v>
@@ -581,16 +581,16 @@
         <v>5</v>
       </c>
       <c r="D5" t="n">
-        <v>5.814834922552109</v>
+        <v>5.168602275429294</v>
       </c>
       <c r="E5" t="n">
-        <v>5.531789172440767</v>
+        <v>5.393329305574298</v>
       </c>
       <c r="F5" t="n">
-        <v>0.1629669845104217</v>
+        <v>0.03372045508585871</v>
       </c>
       <c r="G5" t="n">
-        <v>0.1063578344881535</v>
+        <v>0.07866586111485958</v>
       </c>
       <c r="H5" t="n">
         <v>0.006897940766066313</v>
@@ -612,16 +612,16 @@
         <v>3</v>
       </c>
       <c r="D6" t="n">
-        <v>3.440532090142369</v>
+        <v>3.855129688978195</v>
       </c>
       <c r="E6" t="n">
-        <v>3.539059318602085</v>
+        <v>3.243498809635639</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1468440300474564</v>
+        <v>0.2850432296593984</v>
       </c>
       <c r="G6" t="n">
-        <v>0.1796864395340284</v>
+        <v>0.0811662698785464</v>
       </c>
       <c r="H6" t="n">
         <v>0.008187552914023399</v>
@@ -643,16 +643,16 @@
         <v>2</v>
       </c>
       <c r="D7" t="n">
-        <v>2.667594781145453</v>
+        <v>2.411616187542677</v>
       </c>
       <c r="E7" t="n">
-        <v>2.227042407728732</v>
+        <v>2.285308588296175</v>
       </c>
       <c r="F7" t="n">
-        <v>0.3337973905727267</v>
+        <v>0.2058080937713385</v>
       </c>
       <c r="G7" t="n">
-        <v>0.1135212038643658</v>
+        <v>0.1426542941480875</v>
       </c>
       <c r="H7" t="n">
         <v>0.008930059149861336</v>
@@ -674,16 +674,16 @@
         <v>4</v>
       </c>
       <c r="D8" t="n">
-        <v>4.500956184230745</v>
+        <v>4.397048187442124</v>
       </c>
       <c r="E8" t="n">
-        <v>4.364407908171415</v>
+        <v>4.716597873717546</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1252390460576862</v>
+        <v>0.09926204686053097</v>
       </c>
       <c r="G8" t="n">
-        <v>0.09110197704285383</v>
+        <v>0.1791494684293866</v>
       </c>
       <c r="H8" t="n">
         <v>0.006495729554444551</v>
@@ -705,16 +705,16 @@
         <v>2</v>
       </c>
       <c r="D9" t="n">
-        <v>2.511299774050713</v>
+        <v>2.329123958013952</v>
       </c>
       <c r="E9" t="n">
-        <v>2.883997913450003</v>
+        <v>2.737986572086811</v>
       </c>
       <c r="F9" t="n">
-        <v>0.2556498870253563</v>
+        <v>0.1645619790069759</v>
       </c>
       <c r="G9" t="n">
-        <v>0.4419989567250013</v>
+        <v>0.3689932860434055</v>
       </c>
       <c r="H9" t="n">
         <v>0.006429604254662991</v>
@@ -736,16 +736,16 @@
         <v>3</v>
       </c>
       <c r="D10" t="n">
-        <v>3.413410508073866</v>
+        <v>4.394832290709019</v>
       </c>
       <c r="E10" t="n">
-        <v>3.997776806354523</v>
+        <v>3.822696465998888</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1378035026912888</v>
+        <v>0.4649440969030063</v>
       </c>
       <c r="G10" t="n">
-        <v>0.3325922687848409</v>
+        <v>0.2742321553329627</v>
       </c>
       <c r="H10" t="n">
         <v>0.009470631368458271</v>
@@ -767,16 +767,16 @@
         <v>3</v>
       </c>
       <c r="D11" t="n">
-        <v>3.71144193969667</v>
+        <v>3.868999440222979</v>
       </c>
       <c r="E11" t="n">
-        <v>3.499153878539801</v>
+        <v>3.620934154838324</v>
       </c>
       <c r="F11" t="n">
-        <v>0.2371473132322232</v>
+        <v>0.2896664800743262</v>
       </c>
       <c r="G11" t="n">
-        <v>0.1663846261799335</v>
+        <v>0.2069780516127745</v>
       </c>
       <c r="H11" t="n">
         <v>0.01107843872159719</v>
@@ -798,16 +798,16 @@
         <v>3</v>
       </c>
       <c r="D12" t="n">
-        <v>3.724961582571268</v>
+        <v>3.50879477057606</v>
       </c>
       <c r="E12" t="n">
-        <v>3.195607740432024</v>
+        <v>3.620779767632484</v>
       </c>
       <c r="F12" t="n">
-        <v>0.2416538608570894</v>
+        <v>0.1695982568586866</v>
       </c>
       <c r="G12" t="n">
-        <v>0.065202580144008</v>
+        <v>0.2069265892108282</v>
       </c>
       <c r="H12" t="n">
         <v>0.04844946414232254</v>
@@ -829,16 +829,16 @@
         <v>4</v>
       </c>
       <c r="D13" t="n">
-        <v>4.476688546128571</v>
+        <v>4.320871399249882</v>
       </c>
       <c r="E13" t="n">
-        <v>4.632588542997837</v>
+        <v>4.570783686824143</v>
       </c>
       <c r="F13" t="n">
-        <v>0.1191721365321428</v>
+        <v>0.08021784981247038</v>
       </c>
       <c r="G13" t="n">
-        <v>0.1581471357494593</v>
+        <v>0.1426959217060357</v>
       </c>
       <c r="H13" t="n">
         <v>0.008696182630956173</v>
@@ -860,16 +860,16 @@
         <v>2</v>
       </c>
       <c r="D14" t="n">
-        <v>3.621022529900074</v>
+        <v>3.01353463344276</v>
       </c>
       <c r="E14" t="n">
-        <v>2.789534740149975</v>
+        <v>2.814172249287367</v>
       </c>
       <c r="F14" t="n">
-        <v>0.810511264950037</v>
+        <v>0.5067673167213798</v>
       </c>
       <c r="G14" t="n">
-        <v>0.3947673700749874</v>
+        <v>0.4070861246436834</v>
       </c>
       <c r="H14" t="n">
         <v>0.2578360438346863</v>
@@ -891,16 +891,16 @@
         <v>3</v>
       </c>
       <c r="D15" t="n">
-        <v>3.389196217060089</v>
+        <v>3.618761103600264</v>
       </c>
       <c r="E15" t="n">
-        <v>3.538676145486534</v>
+        <v>3.926798224449158</v>
       </c>
       <c r="F15" t="n">
-        <v>0.129732072353363</v>
+        <v>0.2062537012000879</v>
       </c>
       <c r="G15" t="n">
-        <v>0.1795587151621779</v>
+        <v>0.3089327414830526</v>
       </c>
       <c r="H15" t="n">
         <v>0.09630544483661652</v>
